--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cxcl17</t>
+  </si>
+  <si>
+    <t>Gpr35</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl17</t>
-  </si>
-  <si>
-    <t>Gpr35</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H2">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I2">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J2">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1125986666666667</v>
+        <v>0.8096253333333333</v>
       </c>
       <c r="N2">
-        <v>0.337796</v>
+        <v>2.428876</v>
       </c>
       <c r="O2">
-        <v>0.000719320687134091</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="P2">
-        <v>0.0007193206871340909</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="Q2">
-        <v>0.02015959021422222</v>
+        <v>0.1393138503573333</v>
       </c>
       <c r="R2">
-        <v>0.181436311928</v>
+        <v>1.253824653216</v>
       </c>
       <c r="S2">
-        <v>0.0001614519847323894</v>
+        <v>0.002394165728390134</v>
       </c>
       <c r="T2">
-        <v>0.0001614519847323894</v>
+        <v>0.002394165728390134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H3">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I3">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J3">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>2.924533</v>
       </c>
       <c r="O3">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="P3">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="Q3">
-        <v>0.1745354795437778</v>
+        <v>0.1677434141253334</v>
       </c>
       <c r="R3">
-        <v>1.570819315894</v>
+        <v>1.509690727128</v>
       </c>
       <c r="S3">
-        <v>0.00139780120920724</v>
+        <v>0.002882739456500038</v>
       </c>
       <c r="T3">
-        <v>0.00139780120920724</v>
+        <v>0.002882739456500038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H4">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I4">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J4">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.206532</v>
+        <v>68.11612433333333</v>
       </c>
       <c r="N4">
-        <v>126.619596</v>
+        <v>204.348373</v>
       </c>
       <c r="O4">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="P4">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="Q4">
-        <v>7.556629351592</v>
+        <v>11.72087774628533</v>
       </c>
       <c r="R4">
-        <v>68.009664164328</v>
+        <v>105.487899716568</v>
       </c>
       <c r="S4">
-        <v>0.06051873047701369</v>
+        <v>0.2014280973128657</v>
       </c>
       <c r="T4">
-        <v>0.06051873047701368</v>
+        <v>0.2014280973128657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H5">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I5">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J5">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2094723333333333</v>
+        <v>0.05211566666666667</v>
       </c>
       <c r="N5">
-        <v>0.628417</v>
+        <v>0.156347</v>
       </c>
       <c r="O5">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="P5">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="Q5">
-        <v>0.03750378691177778</v>
+        <v>0.008967646994666668</v>
       </c>
       <c r="R5">
-        <v>0.337534082206</v>
+        <v>0.08070882295200001</v>
       </c>
       <c r="S5">
-        <v>0.0003003563449228942</v>
+        <v>0.0001541126962169384</v>
       </c>
       <c r="T5">
-        <v>0.0003003563449228941</v>
+        <v>0.0001541126962169384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H6">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I6">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J6">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.575901</v>
+        <v>85.86481733333333</v>
       </c>
       <c r="N6">
-        <v>193.727703</v>
+        <v>257.594452</v>
       </c>
       <c r="O6">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289054</v>
       </c>
       <c r="P6">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289053</v>
       </c>
       <c r="Q6">
-        <v>11.56162626443933</v>
+        <v>14.77493084818133</v>
       </c>
       <c r="R6">
-        <v>104.054636379954</v>
+        <v>132.974377633632</v>
       </c>
       <c r="S6">
-        <v>0.09259352433716464</v>
+        <v>0.2539132540326626</v>
       </c>
       <c r="T6">
-        <v>0.09259352433716463</v>
+        <v>0.2539132540326626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1790393333333333</v>
+        <v>0.172072</v>
       </c>
       <c r="H7">
-        <v>0.537118</v>
+        <v>0.516216</v>
       </c>
       <c r="I7">
-        <v>0.224450634633691</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="J7">
-        <v>0.2244506346336909</v>
+        <v>0.5333145993704149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.45537766666666</v>
+        <v>24.53131233333333</v>
       </c>
       <c r="N7">
-        <v>145.366133</v>
+        <v>73.593937</v>
       </c>
       <c r="O7">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="P7">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="Q7">
-        <v>8.675418513854888</v>
+        <v>4.221151975821333</v>
       </c>
       <c r="R7">
-        <v>78.078766624694</v>
+        <v>37.990367782392</v>
       </c>
       <c r="S7">
-        <v>0.06947877028065011</v>
+        <v>0.07254223014377953</v>
       </c>
       <c r="T7">
-        <v>0.06947877028065011</v>
+        <v>0.07254223014377953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>0.238324</v>
       </c>
       <c r="I8">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J8">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1125986666666667</v>
+        <v>0.8096253333333333</v>
       </c>
       <c r="N8">
-        <v>0.337796</v>
+        <v>2.428876</v>
       </c>
       <c r="O8">
-        <v>0.000719320687134091</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="P8">
-        <v>0.0007193206871340909</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="Q8">
-        <v>0.008944988211555554</v>
+        <v>0.06431771598044443</v>
       </c>
       <c r="R8">
-        <v>0.08050489390399999</v>
+        <v>0.5788594438239999</v>
       </c>
       <c r="S8">
-        <v>7.163767144158632E-05</v>
+        <v>0.001105326361547977</v>
       </c>
       <c r="T8">
-        <v>7.163767144158631E-05</v>
+        <v>0.001105326361547976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.238324</v>
       </c>
       <c r="I9">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J9">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>2.924533</v>
       </c>
       <c r="O9">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="P9">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="Q9">
         <v>0.07744293363244444</v>
@@ -1013,10 +1013,10 @@
         <v>0.696986402692</v>
       </c>
       <c r="S9">
-        <v>0.0006202167407964476</v>
+        <v>0.00133088861684046</v>
       </c>
       <c r="T9">
-        <v>0.0006202167407964474</v>
+        <v>0.00133088861684046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.238324</v>
       </c>
       <c r="I10">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J10">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.206532</v>
+        <v>68.11612433333333</v>
       </c>
       <c r="N10">
-        <v>126.619596</v>
+        <v>204.348373</v>
       </c>
       <c r="O10">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="P10">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="Q10">
-        <v>3.352943177456</v>
+        <v>5.41123573853911</v>
       </c>
       <c r="R10">
-        <v>30.176488597104</v>
+        <v>48.70112164685199</v>
       </c>
       <c r="S10">
-        <v>0.02685269516605999</v>
+        <v>0.09299430832053129</v>
       </c>
       <c r="T10">
-        <v>0.02685269516605998</v>
+        <v>0.09299430832053129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.238324</v>
       </c>
       <c r="I11">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J11">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2094723333333333</v>
+        <v>0.05211566666666667</v>
       </c>
       <c r="N11">
-        <v>0.628417</v>
+        <v>0.156347</v>
       </c>
       <c r="O11">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="P11">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="Q11">
-        <v>0.01664076145644444</v>
+        <v>0.004140138047555556</v>
       </c>
       <c r="R11">
-        <v>0.149766853108</v>
+        <v>0.037261242428</v>
       </c>
       <c r="S11">
-        <v>0.0001332707627512089</v>
+        <v>7.114997251771665E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001332707627512088</v>
+        <v>7.114997251771665E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.238324</v>
       </c>
       <c r="I12">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J12">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.575901</v>
+        <v>85.86481733333333</v>
       </c>
       <c r="N12">
-        <v>193.727703</v>
+        <v>257.594452</v>
       </c>
       <c r="O12">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289054</v>
       </c>
       <c r="P12">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289053</v>
       </c>
       <c r="Q12">
-        <v>5.129995676641332</v>
+        <v>6.821215575383111</v>
       </c>
       <c r="R12">
-        <v>46.169961089772</v>
+        <v>61.39094017844799</v>
       </c>
       <c r="S12">
-        <v>0.04108456446093861</v>
+        <v>0.1172253908326752</v>
       </c>
       <c r="T12">
-        <v>0.0410845644609386</v>
+        <v>0.1172253908326752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.238324</v>
       </c>
       <c r="I13">
-        <v>0.09959072875688352</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="J13">
-        <v>0.0995907287568835</v>
+        <v>0.2462179951422558</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.45537766666666</v>
+        <v>24.53131233333333</v>
       </c>
       <c r="N13">
-        <v>145.366133</v>
+        <v>73.593937</v>
       </c>
       <c r="O13">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="P13">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="Q13">
-        <v>3.849359809010221</v>
+        <v>1.948800160176444</v>
       </c>
       <c r="R13">
-        <v>34.64423828109199</v>
+        <v>17.539201441588</v>
       </c>
       <c r="S13">
-        <v>0.03082834395489568</v>
+        <v>0.03349093103814316</v>
       </c>
       <c r="T13">
-        <v>0.03082834395489567</v>
+        <v>0.03349093103814316</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H14">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I14">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J14">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1125986666666667</v>
+        <v>0.8096253333333333</v>
       </c>
       <c r="N14">
-        <v>0.337796</v>
+        <v>2.428876</v>
       </c>
       <c r="O14">
-        <v>0.000719320687134091</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="P14">
-        <v>0.0007193206871340909</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="Q14">
-        <v>0.004975359751111112</v>
+        <v>0.00899439770311111</v>
       </c>
       <c r="R14">
-        <v>0.04477823776</v>
+        <v>0.080949579328</v>
       </c>
       <c r="S14">
-        <v>3.984613268616122E-05</v>
+        <v>0.0001545724181268818</v>
       </c>
       <c r="T14">
-        <v>3.98461326861612E-05</v>
+        <v>0.0001545724181268817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H15">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I15">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J15">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>2.924533</v>
       </c>
       <c r="O15">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="P15">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="Q15">
-        <v>0.0430751216088889</v>
+        <v>0.01082987064711111</v>
       </c>
       <c r="R15">
-        <v>0.3876760944800001</v>
+        <v>0.09746883582400002</v>
       </c>
       <c r="S15">
-        <v>0.0003449754584514238</v>
+        <v>0.0001861157744165877</v>
       </c>
       <c r="T15">
-        <v>0.0003449754584514237</v>
+        <v>0.0001861157744165877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H16">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I16">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J16">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.206532</v>
+        <v>68.11612433333333</v>
       </c>
       <c r="N16">
-        <v>126.619596</v>
+        <v>204.348373</v>
       </c>
       <c r="O16">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="P16">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="Q16">
-        <v>1.86496596064</v>
+        <v>0.7567247305937778</v>
       </c>
       <c r="R16">
-        <v>16.78469364576</v>
+        <v>6.810522575344001</v>
       </c>
       <c r="S16">
-        <v>0.01493594128670597</v>
+        <v>0.01300462524842931</v>
       </c>
       <c r="T16">
-        <v>0.01493594128670596</v>
+        <v>0.01300462524842931</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H17">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I17">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J17">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2094723333333333</v>
+        <v>0.05211566666666667</v>
       </c>
       <c r="N17">
-        <v>0.628417</v>
+        <v>0.156347</v>
       </c>
       <c r="O17">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="P17">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="Q17">
-        <v>0.009255884168888891</v>
+        <v>0.000578970312888889</v>
       </c>
       <c r="R17">
-        <v>0.08330295752000001</v>
+        <v>0.005210732816000001</v>
       </c>
       <c r="S17">
-        <v>7.4127541960945E-05</v>
+        <v>9.949842584340899E-06</v>
       </c>
       <c r="T17">
-        <v>7.412754196094497E-05</v>
+        <v>9.949842584340899E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H18">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I18">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J18">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>64.575901</v>
+        <v>85.86481733333333</v>
       </c>
       <c r="N18">
-        <v>193.727703</v>
+        <v>257.594452</v>
       </c>
       <c r="O18">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289054</v>
       </c>
       <c r="P18">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289053</v>
       </c>
       <c r="Q18">
-        <v>2.853393812186667</v>
+        <v>0.9539008773617779</v>
       </c>
       <c r="R18">
-        <v>25.68054430968001</v>
+        <v>8.585107896256</v>
       </c>
       <c r="S18">
-        <v>0.02285195727220936</v>
+        <v>0.01639317830210722</v>
       </c>
       <c r="T18">
-        <v>0.02285195727220935</v>
+        <v>0.01639317830210722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04418666666666667</v>
+        <v>0.01110933333333333</v>
       </c>
       <c r="H19">
-        <v>0.13256</v>
+        <v>0.033328</v>
       </c>
       <c r="I19">
-        <v>0.05539411475139928</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="J19">
-        <v>0.05539411475139927</v>
+        <v>0.0344319218463147</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.45537766666666</v>
+        <v>24.53131233333333</v>
       </c>
       <c r="N19">
-        <v>145.366133</v>
+        <v>73.593937</v>
       </c>
       <c r="O19">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="P19">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="Q19">
-        <v>2.141081621164445</v>
+        <v>0.2725265258151111</v>
       </c>
       <c r="R19">
-        <v>19.26973459048</v>
+        <v>2.452738732336</v>
       </c>
       <c r="S19">
-        <v>0.01714726705938542</v>
+        <v>0.004683480260650356</v>
       </c>
       <c r="T19">
-        <v>0.01714726705938542</v>
+        <v>0.004683480260650356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H20">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I20">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J20">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1125986666666667</v>
+        <v>0.8096253333333333</v>
       </c>
       <c r="N20">
-        <v>0.337796</v>
+        <v>2.428876</v>
       </c>
       <c r="O20">
-        <v>0.000719320687134091</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="P20">
-        <v>0.0007193206871340909</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="Q20">
-        <v>0.02670157274755556</v>
+        <v>0.005612592685777777</v>
       </c>
       <c r="R20">
-        <v>0.240314154728</v>
+        <v>0.050513334172</v>
       </c>
       <c r="S20">
-        <v>0.000213844719548306</v>
+        <v>9.645471014716635E-05</v>
       </c>
       <c r="T20">
-        <v>0.000213844719548306</v>
+        <v>9.645471014716633E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H21">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I21">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J21">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>2.924533</v>
       </c>
       <c r="O21">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="P21">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="Q21">
-        <v>0.2311739353104445</v>
+        <v>0.006757945866777778</v>
       </c>
       <c r="R21">
-        <v>2.080565417794</v>
+        <v>0.060821512801</v>
       </c>
       <c r="S21">
-        <v>0.001851401257548242</v>
+        <v>0.0001161380749082386</v>
       </c>
       <c r="T21">
-        <v>0.001851401257548242</v>
+        <v>0.0001161380749082386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H22">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I22">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J22">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.206532</v>
+        <v>68.11612433333333</v>
       </c>
       <c r="N22">
-        <v>126.619596</v>
+        <v>204.348373</v>
       </c>
       <c r="O22">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="P22">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="Q22">
-        <v>10.008828860792</v>
+        <v>0.4722036792534444</v>
       </c>
       <c r="R22">
-        <v>90.07945974712803</v>
+        <v>4.249833113281</v>
       </c>
       <c r="S22">
-        <v>0.080157645430792</v>
+        <v>0.008115014141010094</v>
       </c>
       <c r="T22">
-        <v>0.08015764543079199</v>
+        <v>0.008115014141010094</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H23">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I23">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J23">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.2094723333333333</v>
+        <v>0.05211566666666667</v>
       </c>
       <c r="N23">
-        <v>0.628417</v>
+        <v>0.156347</v>
       </c>
       <c r="O23">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="P23">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="Q23">
-        <v>0.04967412947844446</v>
+        <v>0.0003612831732222222</v>
       </c>
       <c r="R23">
-        <v>0.447067165306</v>
+        <v>0.003251548559</v>
       </c>
       <c r="S23">
-        <v>0.000397824891722779</v>
+        <v>6.20879969474729E-06</v>
       </c>
       <c r="T23">
-        <v>0.0003978248917227788</v>
+        <v>6.20879969474729E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H24">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I24">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J24">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.575901</v>
+        <v>85.86481733333333</v>
       </c>
       <c r="N24">
-        <v>193.727703</v>
+        <v>257.594452</v>
       </c>
       <c r="O24">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289054</v>
       </c>
       <c r="P24">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289053</v>
       </c>
       <c r="Q24">
-        <v>15.31348611253934</v>
+        <v>0.5952435353604444</v>
       </c>
       <c r="R24">
-        <v>137.821375012854</v>
+        <v>5.357191818244</v>
       </c>
       <c r="S24">
-        <v>0.1226410209616826</v>
+        <v>0.01022950459520295</v>
       </c>
       <c r="T24">
-        <v>0.1226410209616825</v>
+        <v>0.01022950459520295</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.2371393333333334</v>
+        <v>0.006932333333333333</v>
       </c>
       <c r="H25">
-        <v>0.7114180000000001</v>
+        <v>0.020797</v>
       </c>
       <c r="I25">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="J25">
-        <v>0.2972870423069627</v>
+        <v>0.02148585809642963</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>48.45537766666666</v>
+        <v>24.53131233333333</v>
       </c>
       <c r="N25">
-        <v>145.366133</v>
+        <v>73.593937</v>
       </c>
       <c r="O25">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="P25">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="Q25">
-        <v>11.49067595628822</v>
+        <v>0.1700592341987777</v>
       </c>
       <c r="R25">
-        <v>103.416083606594</v>
+        <v>1.530533107789</v>
       </c>
       <c r="S25">
-        <v>0.09202530504566885</v>
+        <v>0.002922537775466438</v>
       </c>
       <c r="T25">
-        <v>0.09202530504566882</v>
+        <v>0.002922537775466438</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05309133333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.159274</v>
+      </c>
+      <c r="I26">
+        <v>0.164549625544585</v>
+      </c>
+      <c r="J26">
+        <v>0.164549625544585</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G26">
-        <v>0.2555203333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.7665609999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.320330174999603</v>
-      </c>
-      <c r="J26">
-        <v>0.320330174999603</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.1125986666666667</v>
+        <v>0.8096253333333333</v>
       </c>
       <c r="N26">
-        <v>0.337796</v>
+        <v>2.428876</v>
       </c>
       <c r="O26">
-        <v>0.000719320687134091</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="P26">
-        <v>0.0007193206871340909</v>
+        <v>0.004489218429828246</v>
       </c>
       <c r="Q26">
-        <v>0.02877124883955555</v>
+        <v>0.04298408844711112</v>
       </c>
       <c r="R26">
-        <v>0.258941239556</v>
+        <v>0.386856796024</v>
       </c>
       <c r="S26">
-        <v>0.0002304201215904981</v>
+        <v>0.0007386992116160877</v>
       </c>
       <c r="T26">
-        <v>0.000230420121590498</v>
+        <v>0.0007386992116160875</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2555203333333333</v>
+        <v>0.05309133333333334</v>
       </c>
       <c r="H27">
-        <v>0.7665609999999999</v>
+        <v>0.159274</v>
       </c>
       <c r="I27">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="J27">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>2.924533</v>
       </c>
       <c r="O27">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="P27">
-        <v>0.00622765541068078</v>
+        <v>0.00540532634940643</v>
       </c>
       <c r="Q27">
-        <v>0.2490925490014444</v>
+        <v>0.05175578544911113</v>
       </c>
       <c r="R27">
-        <v>2.241832941013</v>
+        <v>0.4658020690420001</v>
       </c>
       <c r="S27">
-        <v>0.001994905947540599</v>
+        <v>0.0008894444267411067</v>
       </c>
       <c r="T27">
-        <v>0.001994905947540598</v>
+        <v>0.0008894444267411065</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2555203333333333</v>
+        <v>0.05309133333333334</v>
       </c>
       <c r="H28">
-        <v>0.7665609999999999</v>
+        <v>0.159274</v>
       </c>
       <c r="I28">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="J28">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.206532</v>
+        <v>68.11612433333333</v>
       </c>
       <c r="N28">
-        <v>126.619596</v>
+        <v>204.348373</v>
       </c>
       <c r="O28">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="P28">
-        <v>0.269630471643717</v>
+        <v>0.3776909493020709</v>
       </c>
       <c r="Q28">
-        <v>10.784627125484</v>
+        <v>3.616375862355778</v>
       </c>
       <c r="R28">
-        <v>97.061644129356</v>
+        <v>32.54738276120201</v>
       </c>
       <c r="S28">
-        <v>0.08637077616685736</v>
+        <v>0.06214890427923461</v>
       </c>
       <c r="T28">
-        <v>0.08637077616685734</v>
+        <v>0.06214890427923459</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2555203333333333</v>
+        <v>0.05309133333333334</v>
       </c>
       <c r="H29">
-        <v>0.7665609999999999</v>
+        <v>0.159274</v>
       </c>
       <c r="I29">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="J29">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.2094723333333333</v>
+        <v>0.05211566666666667</v>
       </c>
       <c r="N29">
-        <v>0.628417</v>
+        <v>0.156347</v>
       </c>
       <c r="O29">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="P29">
-        <v>0.001338184431570368</v>
+        <v>0.0002889714558702696</v>
       </c>
       <c r="Q29">
-        <v>0.05352444043744444</v>
+        <v>0.00276689023088889</v>
       </c>
       <c r="R29">
-        <v>0.481719963937</v>
+        <v>0.02490201207800001</v>
       </c>
       <c r="S29">
-        <v>0.0004286608531466804</v>
+        <v>4.755014485652643E-05</v>
       </c>
       <c r="T29">
-        <v>0.0004286608531466802</v>
+        <v>4.755014485652642E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2555203333333333</v>
+        <v>0.05309133333333334</v>
       </c>
       <c r="H30">
-        <v>0.7665609999999999</v>
+        <v>0.159274</v>
       </c>
       <c r="I30">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="J30">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>64.575901</v>
+        <v>85.86481733333333</v>
       </c>
       <c r="N30">
-        <v>193.727703</v>
+        <v>257.594452</v>
       </c>
       <c r="O30">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289054</v>
       </c>
       <c r="P30">
-        <v>0.4125340277530495</v>
+        <v>0.4761040750289053</v>
       </c>
       <c r="Q30">
-        <v>16.50045574882033</v>
+        <v>4.558677638649779</v>
       </c>
       <c r="R30">
-        <v>148.504101739383</v>
+        <v>41.02809874784801</v>
       </c>
       <c r="S30">
-        <v>0.1321470973034254</v>
+        <v>0.07834274726625738</v>
       </c>
       <c r="T30">
-        <v>0.1321470973034254</v>
+        <v>0.07834274726625735</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2555203333333333</v>
+        <v>0.05309133333333334</v>
       </c>
       <c r="H31">
-        <v>0.7665609999999999</v>
+        <v>0.159274</v>
       </c>
       <c r="I31">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="J31">
-        <v>0.320330174999603</v>
+        <v>0.164549625544585</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>48.45537766666666</v>
+        <v>24.53131233333333</v>
       </c>
       <c r="N31">
-        <v>145.366133</v>
+        <v>73.593937</v>
       </c>
       <c r="O31">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="P31">
-        <v>0.3095503400738483</v>
+        <v>0.1360214594339188</v>
       </c>
       <c r="Q31">
-        <v>12.38133425317922</v>
+        <v>1.302400080193111</v>
       </c>
       <c r="R31">
-        <v>111.432008278613</v>
+        <v>11.721600721738</v>
       </c>
       <c r="S31">
-        <v>0.09915831460704246</v>
+        <v>0.02238228021587929</v>
       </c>
       <c r="T31">
-        <v>0.09915831460704244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.002351</v>
-      </c>
-      <c r="H32">
-        <v>0.007053</v>
-      </c>
-      <c r="I32">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J32">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.1125986666666667</v>
-      </c>
-      <c r="N32">
-        <v>0.337796</v>
-      </c>
-      <c r="O32">
-        <v>0.000719320687134091</v>
-      </c>
-      <c r="P32">
-        <v>0.0007193206871340909</v>
-      </c>
-      <c r="Q32">
-        <v>0.0002647194653333333</v>
-      </c>
-      <c r="R32">
-        <v>0.002382475188</v>
-      </c>
-      <c r="S32">
-        <v>2.120057135150084E-06</v>
-      </c>
-      <c r="T32">
-        <v>2.120057135150083E-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.002351</v>
-      </c>
-      <c r="H33">
-        <v>0.007053</v>
-      </c>
-      <c r="I33">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J33">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.9748443333333334</v>
-      </c>
-      <c r="N33">
-        <v>2.924533</v>
-      </c>
-      <c r="O33">
-        <v>0.00622765541068078</v>
-      </c>
-      <c r="P33">
-        <v>0.00622765541068078</v>
-      </c>
-      <c r="Q33">
-        <v>0.002291859027666667</v>
-      </c>
-      <c r="R33">
-        <v>0.020626731249</v>
-      </c>
-      <c r="S33">
-        <v>1.835479713682779E-05</v>
-      </c>
-      <c r="T33">
-        <v>1.835479713682779E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.002351</v>
-      </c>
-      <c r="H34">
-        <v>0.007053</v>
-      </c>
-      <c r="I34">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J34">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>42.206532</v>
-      </c>
-      <c r="N34">
-        <v>126.619596</v>
-      </c>
-      <c r="O34">
-        <v>0.269630471643717</v>
-      </c>
-      <c r="P34">
-        <v>0.269630471643717</v>
-      </c>
-      <c r="Q34">
-        <v>0.09922755673200001</v>
-      </c>
-      <c r="R34">
-        <v>0.8930480105880001</v>
-      </c>
-      <c r="S34">
-        <v>0.0007946831162879992</v>
-      </c>
-      <c r="T34">
-        <v>0.0007946831162879991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.002351</v>
-      </c>
-      <c r="H35">
-        <v>0.007053</v>
-      </c>
-      <c r="I35">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J35">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M35">
-        <v>0.2094723333333333</v>
-      </c>
-      <c r="N35">
-        <v>0.628417</v>
-      </c>
-      <c r="O35">
-        <v>0.001338184431570368</v>
-      </c>
-      <c r="P35">
-        <v>0.001338184431570368</v>
-      </c>
-      <c r="Q35">
-        <v>0.0004924694556666668</v>
-      </c>
-      <c r="R35">
-        <v>0.004432225101000001</v>
-      </c>
-      <c r="S35">
-        <v>3.944037065861083E-06</v>
-      </c>
-      <c r="T35">
-        <v>3.944037065861081E-06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.002351</v>
-      </c>
-      <c r="H36">
-        <v>0.007053</v>
-      </c>
-      <c r="I36">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J36">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>64.575901</v>
-      </c>
-      <c r="N36">
-        <v>193.727703</v>
-      </c>
-      <c r="O36">
-        <v>0.4125340277530495</v>
-      </c>
-      <c r="P36">
-        <v>0.4125340277530495</v>
-      </c>
-      <c r="Q36">
-        <v>0.151817943251</v>
-      </c>
-      <c r="R36">
-        <v>1.366361489259</v>
-      </c>
-      <c r="S36">
-        <v>0.001215863417628942</v>
-      </c>
-      <c r="T36">
-        <v>0.001215863417628942</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.002351</v>
-      </c>
-      <c r="H37">
-        <v>0.007053</v>
-      </c>
-      <c r="I37">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="J37">
-        <v>0.002947304551460615</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>48.45537766666666</v>
-      </c>
-      <c r="N37">
-        <v>145.366133</v>
-      </c>
-      <c r="O37">
-        <v>0.3095503400738483</v>
-      </c>
-      <c r="P37">
-        <v>0.3095503400738483</v>
-      </c>
-      <c r="Q37">
-        <v>0.1139185928943333</v>
-      </c>
-      <c r="R37">
-        <v>1.025267336049</v>
-      </c>
-      <c r="S37">
-        <v>0.0009123391262058343</v>
-      </c>
-      <c r="T37">
-        <v>0.0009123391262058342</v>
+        <v>0.02238228021587929</v>
       </c>
     </row>
   </sheetData>
